--- a/medicine/Psychotrope/Château_Olivier/Château_Olivier.xlsx
+++ b/medicine/Psychotrope/Château_Olivier/Château_Olivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Olivier</t>
+          <t>Château_Olivier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Olivier est un domaine viticole de 220 ha situé à Léognan en Gironde. Situé en AOC pessac-léognan, il est classé grand cru dans le classement des vins de Graves.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Olivier</t>
+          <t>Château_Olivier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château Olivier est une très ancienne seigneurie remontant au Moyen Âge[réf. nécessaire]. Le domaine est mentionné en 1350 et remanié aux XVe et XVIIe siècles[1]. Le domaine appartient depuis le XIXe siècle à la famille Metzler de Bethmann d'origine allemande, installée à Bordeaux depuis le XVIIIe siècle, qui en a confié la direction générale à Laurent Lebrun. Le vin du Château Olivier a été classé en 1953, tant en rouge qu’en blanc.
-Le château est inscrit partiellement au titre des monuments historiques par arrêté du 11 mars 1963[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château Olivier est une très ancienne seigneurie remontant au Moyen Âge[réf. nécessaire]. Le domaine est mentionné en 1350 et remanié aux XVe et XVIIe siècles. Le domaine appartient depuis le XIXe siècle à la famille Metzler de Bethmann d'origine allemande, installée à Bordeaux depuis le XVIIIe siècle, qui en a confié la direction générale à Laurent Lebrun. Le vin du Château Olivier a été classé en 1953, tant en rouge qu’en blanc.
+Le château est inscrit partiellement au titre des monuments historiques par arrêté du 11 mars 1963.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Olivier</t>
+          <t>Château_Olivier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de ces dernières années, le vignoble de Château Olivier a fait l'objet de travaux et d'investissements considérables. Un inventaire géologique très précis a révélé de nouvelles potentialités sur ce terroir ; et des plantations récentes ont permis de remettre le vignoble dans le cadastre qui était le sien au XVIIIe siècle, au détriment de parcelles les moins qualitatives qui ont été arrachées[réf. nécessaire].
 Le vignoble de 60 ha (52 ha rouge, et 8 ha blanc) est sur un sol de graves compactes, graves profondes, graves sur marnes, marnes et calcaires miocène. L'encépagement des vins rouges est composé à 58 % de merlot, 40 % de cabernet sauvignon et 2 % de petit verdot. Celui des vins blancs est à 75 % de sémillon et 25 % de sauvignon. L'âge moyen des vignes est de vingt ans pour les rouges et trente ans pour les blancs. Elles sont plantées à une forte densité allant de 7 000 à 10 000 pieds/ha.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Olivier</t>
+          <t>Château_Olivier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vendanges manuelles se font par tris successifs. 
 Les vins blancs sont élevés sur lies en barriques pendant 10 mois.
